--- a/InputData/trans/AVIC/Annual Vehicle Insurance Cost.xlsx
+++ b/InputData/trans/AVIC/Annual Vehicle Insurance Cost.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\AVIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-mexico\InputData\trans\AVIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C68CA1-D4E5-4267-A93A-22A2147EC345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B39EF69-CD2F-4DC7-9146-BDDC54F844B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1470" windowWidth="22500" windowHeight="21135" xr2:uid="{D78DFE5E-0A7F-4A12-AD34-4FEABB0CFCE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D78DFE5E-0A7F-4A12-AD34-4FEABB0CFCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="AVIC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>AVIC Annual Vehicle Insurance Cost</t>
   </si>
@@ -44,18 +44,9 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>American Automobile Association</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
-    <t>Average Annual Cost of New Car Ownership Increases 5% to $9,282</t>
-  </si>
-  <si>
-    <t>https://www.aaa.com/autorepair/articles/average-annual-cost-of-new-vehicle-ownership</t>
-  </si>
-  <si>
     <t>HDVs</t>
   </si>
   <si>
@@ -77,129 +68,21 @@
     <t>freight</t>
   </si>
   <si>
-    <t>Data from AAA:</t>
-  </si>
-  <si>
-    <t>$/yr (2019 USD)</t>
-  </si>
-  <si>
     <t>Freight HDVs</t>
   </si>
   <si>
-    <t>Progressive Commercial</t>
-  </si>
-  <si>
-    <t>undated</t>
-  </si>
-  <si>
-    <t>What does commercial truck insurance cost?</t>
-  </si>
-  <si>
-    <t>https://www.progressivecommercial.com/commercial-auto-insurance/truck-insurance/commercial-truck-insurance-cost/</t>
-  </si>
-  <si>
-    <t>$/mth</t>
-  </si>
-  <si>
-    <t>Avg. for specialty truckers</t>
-  </si>
-  <si>
-    <t>Avg. for transport truckers</t>
-  </si>
-  <si>
-    <t>Overall simple average</t>
-  </si>
-  <si>
-    <t>Annualized</t>
-  </si>
-  <si>
-    <t>$/yr</t>
-  </si>
-  <si>
     <t>Passenger LDVs</t>
   </si>
   <si>
-    <t>Likely includes primary liability insurance, physical damage insurance, occupational accident coverage, and general liability insurance.</t>
-  </si>
-  <si>
-    <t>For more on these insurance types, see https://www.caranddriver.com/car-insurance/a36320549/truck-insurance-cost/</t>
-  </si>
-  <si>
     <t>Passenger HDVs (buses)</t>
   </si>
   <si>
-    <t>50-state average</t>
-  </si>
-  <si>
-    <t>Bus Insurance HQ</t>
-  </si>
-  <si>
-    <t>https://www.businsurancehq.com/bus-insurance-cost/</t>
-  </si>
-  <si>
     <t>Freight LDVs</t>
   </si>
   <si>
-    <t>Car and Driver magazine</t>
-  </si>
-  <si>
-    <t>https://www.caranddriver.com/car-insurance/a36232977/commercial-auto-insurance-cost/</t>
-  </si>
-  <si>
-    <t>Commercial Auto Insurance Cost: Everything You Need to Know</t>
-  </si>
-  <si>
-    <t>Using data from Car and Driver magazine (2021):</t>
-  </si>
-  <si>
-    <t>standard car used for business purposes</t>
-  </si>
-  <si>
-    <t>Limousine</t>
-  </si>
-  <si>
-    <t>Cargo or delivery van</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Semi-truck</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Simple Avg</t>
-  </si>
-  <si>
-    <t>$/yr (2021 USD)</t>
-  </si>
-  <si>
-    <t>For freight LDVs, the value for "cargo or delivery van" is most appropriate.</t>
-  </si>
-  <si>
-    <t>Passenger LDV</t>
-  </si>
-  <si>
     <t>Passenger Motorbikes</t>
   </si>
   <si>
-    <t>Matt Timmons</t>
-  </si>
-  <si>
-    <t>Average Cost of Motorcycle Insurance (2022)</t>
-  </si>
-  <si>
-    <t>https://www.valuepenguin.com/average-cost-of-motorcycle-insurance</t>
-  </si>
-  <si>
-    <t>Timmons (2021):</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -233,29 +116,75 @@
     <t>Currency Conversion</t>
   </si>
   <si>
-    <t>2019 to 2012 USD</t>
-  </si>
-  <si>
-    <t>2020 to 2012 USD</t>
-  </si>
-  <si>
-    <t>2021 to 2012 USD (est.)</t>
-  </si>
-  <si>
-    <t>Est. 2021 inflation rate (from BLS, through Nov 2021, https://www.bls.gov/cpi/)</t>
-  </si>
-  <si>
     <t>2012 USD/year</t>
+  </si>
+  <si>
+    <t>2019 to 2021 USD</t>
+  </si>
+  <si>
+    <t>https://cotizator.com/seguros-para-motos/</t>
+  </si>
+  <si>
+    <t>Cotizador.com website</t>
+  </si>
+  <si>
+    <t>No open representative data found for passenger buses, would need to request quotes and hard to extrapolate from single data points.</t>
+  </si>
+  <si>
+    <t>Both sites refer to AMIS as their source of data AMIS site does not show data publicly.</t>
+  </si>
+  <si>
+    <t>https://ahorraseguros.mx/seguros-de-autos/guias/cuanto-cuesta-un-seguro-de-auto/</t>
+  </si>
+  <si>
+    <t>and:</t>
+  </si>
+  <si>
+    <t>https://www.mejortrato.com.mx/seguros/seguro-de-un-auto-precios</t>
+  </si>
+  <si>
+    <t>Data from:</t>
+  </si>
+  <si>
+    <t>https://sitio.amis.com.mx/autos/</t>
+  </si>
+  <si>
+    <t>Statistical reports</t>
+  </si>
+  <si>
+    <t>Asociación Mexicana de Instituciones de seguros</t>
+  </si>
+  <si>
+    <t>Average vehicule insurance cost in Mexico</t>
+  </si>
+  <si>
+    <t>$ / yr (2019 Mexican pesos)</t>
+  </si>
+  <si>
+    <t>mxn/usd 2019</t>
+  </si>
+  <si>
+    <t>2019 usd</t>
+  </si>
+  <si>
+    <t>2012 usd</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>freight multiplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +208,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,11 +245,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -330,19 +261,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6A50A16A-44B4-4BB5-BE30-669E81329B1C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -654,9 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC790369-4F84-43C0-97E9-6D0C01E4139F}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -673,12 +608,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,215 +623,180 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="A9" t="s">
         <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
+      <c r="A44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>0.89800000000000002</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <f>A47/(1+A50)</f>
-        <v>0.83052434456928836</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
+      <c r="B48" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{E31DF05E-B87F-4D1B-AC11-F88AEEDA7D2F}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{DC3E2816-48AF-4FA2-A726-B61F86FC64CE}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{929BA16D-4044-4610-8C77-D354B466069A}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{3786F80B-C165-478C-A885-8E7EE782E47E}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{ECB38255-597D-4E40-A940-86F690DADDBD}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{6FDB9D46-8E45-4419-B5FF-D510A2645643}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{EB0BE14E-9C5E-423C-8DA2-95F4127F36EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C907FFC-9E03-403C-A103-2A580B24C105}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -904,250 +804,361 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1194</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>8000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f>A2/A3</f>
+        <v>444.44444444444446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <f>A4*About!A48</f>
+        <v>399.11111111111114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>600</v>
-      </c>
-      <c r="C11">
-        <v>2400</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(B11:C11)</f>
-        <v>1500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12">
-        <v>4000</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D15" si="0">AVERAGE(B12:C12)</f>
-        <v>7000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B13">
-        <v>3300</v>
-      </c>
-      <c r="C13">
-        <v>6200</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>4750</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>5000</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>8000</v>
-      </c>
-      <c r="C15">
-        <v>12500</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>10250</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>982</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <f>AVERAGE(B21:B22)</f>
-        <v>811</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8">
-        <f>B23*12</f>
-        <v>9732</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8">
-        <v>9420</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="8">
-        <v>721</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,7 +1172,9 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1171,81 +1184,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11">
-        <f>Data!B4*About!A46</f>
-        <v>1072.212</v>
-      </c>
-      <c r="C2" s="11">
-        <f>Data!D13*About!A48</f>
-        <v>3944.9906367041199</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <f>Data!A5</f>
+        <v>399.11111111111114</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B2*Data!A9</f>
+        <v>718.40000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11">
-        <f>Data!B31*About!A48</f>
-        <v>7823.5393258426966</v>
-      </c>
-      <c r="C3" s="11">
-        <f>Data!B24*About!A48</f>
-        <v>8082.6629213483147</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11">
-        <f>Data!B37*About!A48</f>
-        <v>598.80805243445695</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <f>Data!A12/Data!$A$3*About!$A$48</f>
+        <v>249.44444444444446</v>
       </c>
       <c r="C7">
         <v>0</v>
